--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Clcf1-Lifr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Clcf1-Lifr.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.994409666666667</v>
+        <v>3.554827</v>
       </c>
       <c r="H2">
-        <v>5.983229</v>
+        <v>10.664481</v>
       </c>
       <c r="I2">
-        <v>0.1351966956417444</v>
+        <v>0.2148969460055877</v>
       </c>
       <c r="J2">
-        <v>0.1351966956417444</v>
+        <v>0.2148969460055877</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>37.78741566666667</v>
+        <v>34.293805</v>
       </c>
       <c r="N2">
-        <v>113.362247</v>
+        <v>102.881415</v>
       </c>
       <c r="O2">
-        <v>0.3899441593213934</v>
+        <v>0.3000373067112135</v>
       </c>
       <c r="P2">
-        <v>0.3899441593213934</v>
+        <v>0.3000373067112135</v>
       </c>
       <c r="Q2">
-        <v>75.36358708395144</v>
+        <v>121.908543946735</v>
       </c>
       <c r="R2">
-        <v>678.2722837555631</v>
+        <v>1097.176895520615</v>
       </c>
       <c r="S2">
-        <v>0.05271916182505031</v>
+        <v>0.0644771008999816</v>
       </c>
       <c r="T2">
-        <v>0.05271916182505032</v>
+        <v>0.0644771008999816</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.994409666666667</v>
+        <v>3.554827</v>
       </c>
       <c r="H3">
-        <v>5.983229</v>
+        <v>10.664481</v>
       </c>
       <c r="I3">
-        <v>0.1351966956417444</v>
+        <v>0.2148969460055877</v>
       </c>
       <c r="J3">
-        <v>0.1351966956417444</v>
+        <v>0.2148969460055877</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>82.867604</v>
       </c>
       <c r="O3">
-        <v>0.2850484974663402</v>
+        <v>0.2416702056223797</v>
       </c>
       <c r="P3">
-        <v>0.2850484974663403</v>
+        <v>0.2416702056223798</v>
       </c>
       <c r="Q3">
-        <v>55.09065015703511</v>
+        <v>98.19333204150266</v>
       </c>
       <c r="R3">
-        <v>495.815851413316</v>
+        <v>883.7399883735238</v>
       </c>
       <c r="S3">
-        <v>0.03853761495509335</v>
+        <v>0.05193418912879182</v>
       </c>
       <c r="T3">
-        <v>0.03853761495509336</v>
+        <v>0.05193418912879182</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.994409666666667</v>
+        <v>3.554827</v>
       </c>
       <c r="H4">
-        <v>5.983229</v>
+        <v>10.664481</v>
       </c>
       <c r="I4">
-        <v>0.1351966956417444</v>
+        <v>0.2148969460055877</v>
       </c>
       <c r="J4">
-        <v>0.1351966956417444</v>
+        <v>0.2148969460055877</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.205342333333334</v>
+        <v>32.81168366666667</v>
       </c>
       <c r="N4">
-        <v>27.616027</v>
+        <v>98.435051</v>
       </c>
       <c r="O4">
-        <v>0.09499378071000923</v>
+        <v>0.2870701922987834</v>
       </c>
       <c r="P4">
-        <v>0.09499378071000925</v>
+        <v>0.2870701922987835</v>
       </c>
       <c r="Q4">
-        <v>18.35922373457589</v>
+        <v>116.6398590137257</v>
       </c>
       <c r="R4">
-        <v>165.233013611183</v>
+        <v>1049.758731123531</v>
       </c>
       <c r="S4">
-        <v>0.01284284525850973</v>
+        <v>0.06169050761424535</v>
       </c>
       <c r="T4">
-        <v>0.01284284525850973</v>
+        <v>0.06169050761424535</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.994409666666667</v>
+        <v>3.554827</v>
       </c>
       <c r="H5">
-        <v>5.983229</v>
+        <v>10.664481</v>
       </c>
       <c r="I5">
-        <v>0.1351966956417444</v>
+        <v>0.2148969460055877</v>
       </c>
       <c r="J5">
-        <v>0.1351966956417444</v>
+        <v>0.2148969460055877</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.870543333333333</v>
+        <v>6.520685</v>
       </c>
       <c r="N5">
-        <v>14.61163</v>
+        <v>19.562055</v>
       </c>
       <c r="O5">
-        <v>0.05026117536877379</v>
+        <v>0.05704962646496092</v>
       </c>
       <c r="P5">
-        <v>0.0502611753687738</v>
+        <v>0.05704962646496093</v>
       </c>
       <c r="Q5">
-        <v>9.713858705918888</v>
+        <v>23.179907096495</v>
       </c>
       <c r="R5">
-        <v>87.42472835327</v>
+        <v>208.619163868455</v>
       </c>
       <c r="S5">
-        <v>0.006795144828928451</v>
+        <v>0.01225979049807966</v>
       </c>
       <c r="T5">
-        <v>0.006795144828928452</v>
+        <v>0.01225979049807966</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.994409666666667</v>
+        <v>3.554827</v>
       </c>
       <c r="H6">
-        <v>5.983229</v>
+        <v>10.664481</v>
       </c>
       <c r="I6">
-        <v>0.1351966956417444</v>
+        <v>0.2148969460055877</v>
       </c>
       <c r="J6">
-        <v>0.1351966956417444</v>
+        <v>0.2148969460055877</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>17.41884833333333</v>
+        <v>13.04976133333333</v>
       </c>
       <c r="N6">
-        <v>52.256545</v>
+        <v>39.14928399999999</v>
       </c>
       <c r="O6">
-        <v>0.1797523871334833</v>
+        <v>0.1141726689026624</v>
       </c>
       <c r="P6">
-        <v>0.1797523871334834</v>
+        <v>0.1141726689026624</v>
       </c>
       <c r="Q6">
-        <v>34.74031949820056</v>
+        <v>46.38964393128932</v>
       </c>
       <c r="R6">
-        <v>312.662875483805</v>
+        <v>417.5067953816039</v>
       </c>
       <c r="S6">
-        <v>0.02430192877416256</v>
+        <v>0.02453535786448927</v>
       </c>
       <c r="T6">
-        <v>0.02430192877416257</v>
+        <v>0.02453535786448928</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>15.422326</v>
       </c>
       <c r="I7">
-        <v>0.3484819842780147</v>
+        <v>0.3107709374420163</v>
       </c>
       <c r="J7">
-        <v>0.3484819842780147</v>
+        <v>0.3107709374420163</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>37.78741566666667</v>
+        <v>34.293805</v>
       </c>
       <c r="N7">
-        <v>113.362247</v>
+        <v>102.881415</v>
       </c>
       <c r="O7">
-        <v>0.3899441593213934</v>
+        <v>0.3000373067112135</v>
       </c>
       <c r="P7">
-        <v>0.3899441593213934</v>
+        <v>0.3000373067112135</v>
       </c>
       <c r="Q7">
-        <v>194.2566143696135</v>
+        <v>176.2967468301433</v>
       </c>
       <c r="R7">
-        <v>1748.309529326522</v>
+        <v>1586.67072147129</v>
       </c>
       <c r="S7">
-        <v>0.1358885143979414</v>
+        <v>0.09324287507422158</v>
       </c>
       <c r="T7">
-        <v>0.1358885143979415</v>
+        <v>0.09324287507422158</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>15.422326</v>
       </c>
       <c r="I8">
-        <v>0.3484819842780147</v>
+        <v>0.3107709374420163</v>
       </c>
       <c r="J8">
-        <v>0.3484819842780147</v>
+        <v>0.3107709374420163</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>82.867604</v>
       </c>
       <c r="O8">
-        <v>0.2850484974663402</v>
+        <v>0.2416702056223797</v>
       </c>
       <c r="P8">
-        <v>0.2850484974663403</v>
+        <v>0.2416702056223798</v>
       </c>
       <c r="Q8">
         <v>142.0012448585449</v>
@@ -948,10 +948,10 @@
         <v>1278.011203726904</v>
       </c>
       <c r="S8">
-        <v>0.09933426601253688</v>
+        <v>0.07510407635307179</v>
       </c>
       <c r="T8">
-        <v>0.09933426601253689</v>
+        <v>0.07510407635307179</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>15.422326</v>
       </c>
       <c r="I9">
-        <v>0.3484819842780147</v>
+        <v>0.3107709374420163</v>
       </c>
       <c r="J9">
-        <v>0.3484819842780147</v>
+        <v>0.3107709374420163</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>9.205342333333334</v>
+        <v>32.81168366666667</v>
       </c>
       <c r="N9">
-        <v>27.616027</v>
+        <v>98.435051</v>
       </c>
       <c r="O9">
-        <v>0.09499378071000923</v>
+        <v>0.2870701922987834</v>
       </c>
       <c r="P9">
-        <v>0.09499378071000925</v>
+        <v>0.2870701922987835</v>
       </c>
       <c r="Q9">
-        <v>47.32259680208912</v>
+        <v>168.6774940387362</v>
       </c>
       <c r="R9">
-        <v>425.903371218802</v>
+        <v>1518.097446348626</v>
       </c>
       <c r="S9">
-        <v>0.03310362119589461</v>
+        <v>0.08921307277235281</v>
       </c>
       <c r="T9">
-        <v>0.03310362119589462</v>
+        <v>0.08921307277235282</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>15.422326</v>
       </c>
       <c r="I10">
-        <v>0.3484819842780147</v>
+        <v>0.3107709374420163</v>
       </c>
       <c r="J10">
-        <v>0.3484819842780147</v>
+        <v>0.3107709374420163</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.870543333333333</v>
+        <v>6.520685</v>
       </c>
       <c r="N10">
-        <v>14.61163</v>
+        <v>19.562055</v>
       </c>
       <c r="O10">
-        <v>0.05026117536877379</v>
+        <v>0.05704962646496092</v>
       </c>
       <c r="P10">
-        <v>0.0502611753687738</v>
+        <v>0.05704962646496093</v>
       </c>
       <c r="Q10">
-        <v>25.03836902793111</v>
+        <v>33.52137660443667</v>
       </c>
       <c r="R10">
-        <v>225.34532125138</v>
+        <v>301.69238943993</v>
       </c>
       <c r="S10">
-        <v>0.01751511412465557</v>
+        <v>0.01772936589723277</v>
       </c>
       <c r="T10">
-        <v>0.01751511412465557</v>
+        <v>0.01772936589723277</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>15.422326</v>
       </c>
       <c r="I11">
-        <v>0.3484819842780147</v>
+        <v>0.3107709374420163</v>
       </c>
       <c r="J11">
-        <v>0.3484819842780147</v>
+        <v>0.3107709374420163</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>17.41884833333333</v>
+        <v>13.04976133333333</v>
       </c>
       <c r="N11">
-        <v>52.256545</v>
+        <v>39.14928399999999</v>
       </c>
       <c r="O11">
-        <v>0.1797523871334833</v>
+        <v>0.1141726689026624</v>
       </c>
       <c r="P11">
-        <v>0.1797523871334834</v>
+        <v>0.1141726689026624</v>
       </c>
       <c r="Q11">
-        <v>89.54638584707443</v>
+        <v>67.08589116828709</v>
       </c>
       <c r="R11">
-        <v>805.9174726236699</v>
+        <v>603.7730205145839</v>
       </c>
       <c r="S11">
-        <v>0.06264046854698616</v>
+        <v>0.03548154734513732</v>
       </c>
       <c r="T11">
-        <v>0.06264046854698617</v>
+        <v>0.03548154734513733</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.8411243333333333</v>
+        <v>2.615693</v>
       </c>
       <c r="H12">
-        <v>2.523373</v>
+        <v>7.847079000000001</v>
       </c>
       <c r="I12">
-        <v>0.05701799003039922</v>
+        <v>0.1581242736673807</v>
       </c>
       <c r="J12">
-        <v>0.05701799003039922</v>
+        <v>0.1581242736673807</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>37.78741566666667</v>
+        <v>34.293805</v>
       </c>
       <c r="N12">
-        <v>113.362247</v>
+        <v>102.881415</v>
       </c>
       <c r="O12">
-        <v>0.3899441593213934</v>
+        <v>0.3000373067112135</v>
       </c>
       <c r="P12">
-        <v>0.3899441593213934</v>
+        <v>0.3000373067112135</v>
       </c>
       <c r="Q12">
-        <v>31.78391481101455</v>
+        <v>89.70206568186501</v>
       </c>
       <c r="R12">
-        <v>286.055233299131</v>
+        <v>807.318591136785</v>
       </c>
       <c r="S12">
-        <v>0.02223383218859961</v>
+        <v>0.04744318119682775</v>
       </c>
       <c r="T12">
-        <v>0.02223383218859962</v>
+        <v>0.04744318119682775</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.8411243333333333</v>
+        <v>2.615693</v>
       </c>
       <c r="H13">
-        <v>2.523373</v>
+        <v>7.847079000000001</v>
       </c>
       <c r="I13">
-        <v>0.05701799003039922</v>
+        <v>0.1581242736673807</v>
       </c>
       <c r="J13">
-        <v>0.05701799003039922</v>
+        <v>0.1581242736673807</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>82.867604</v>
       </c>
       <c r="O13">
-        <v>0.2850484974663402</v>
+        <v>0.2416702056223797</v>
       </c>
       <c r="P13">
-        <v>0.2850484974663403</v>
+        <v>0.2416702056223798</v>
       </c>
       <c r="Q13">
-        <v>23.23398605647689</v>
+        <v>72.25207056985734</v>
       </c>
       <c r="R13">
-        <v>209.105874508292</v>
+        <v>650.268635128716</v>
       </c>
       <c r="S13">
-        <v>0.01625289238671606</v>
+        <v>0.03821392573108533</v>
       </c>
       <c r="T13">
-        <v>0.01625289238671607</v>
+        <v>0.03821392573108533</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.8411243333333333</v>
+        <v>2.615693</v>
       </c>
       <c r="H14">
-        <v>2.523373</v>
+        <v>7.847079000000001</v>
       </c>
       <c r="I14">
-        <v>0.05701799003039922</v>
+        <v>0.1581242736673807</v>
       </c>
       <c r="J14">
-        <v>0.05701799003039922</v>
+        <v>0.1581242736673807</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>9.205342333333334</v>
+        <v>32.81168366666667</v>
       </c>
       <c r="N14">
-        <v>27.616027</v>
+        <v>98.435051</v>
       </c>
       <c r="O14">
-        <v>0.09499378071000923</v>
+        <v>0.2870701922987834</v>
       </c>
       <c r="P14">
-        <v>0.09499378071000925</v>
+        <v>0.2870701922987835</v>
       </c>
       <c r="Q14">
-        <v>7.742837433230111</v>
+        <v>85.82529128511435</v>
       </c>
       <c r="R14">
-        <v>69.685536899071</v>
+        <v>772.4276215660291</v>
       </c>
       <c r="S14">
-        <v>0.005416354441473236</v>
+        <v>0.04539276564880042</v>
       </c>
       <c r="T14">
-        <v>0.005416354441473237</v>
+        <v>0.04539276564880043</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.8411243333333333</v>
+        <v>2.615693</v>
       </c>
       <c r="H15">
-        <v>2.523373</v>
+        <v>7.847079000000001</v>
       </c>
       <c r="I15">
-        <v>0.05701799003039922</v>
+        <v>0.1581242736673807</v>
       </c>
       <c r="J15">
-        <v>0.05701799003039922</v>
+        <v>0.1581242736673807</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.870543333333333</v>
+        <v>6.520685</v>
       </c>
       <c r="N15">
-        <v>14.61163</v>
+        <v>19.562055</v>
       </c>
       <c r="O15">
-        <v>0.05026117536877379</v>
+        <v>0.05704962646496092</v>
       </c>
       <c r="P15">
-        <v>0.0502611753687738</v>
+        <v>0.05704962646496093</v>
       </c>
       <c r="Q15">
-        <v>4.09673251422111</v>
+        <v>17.056110109705</v>
       </c>
       <c r="R15">
-        <v>36.87059262799</v>
+        <v>153.504990987345</v>
       </c>
       <c r="S15">
-        <v>0.002865791196092891</v>
+        <v>0.009020930747767324</v>
       </c>
       <c r="T15">
-        <v>0.002865791196092891</v>
+        <v>0.009020930747767324</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.8411243333333333</v>
+        <v>2.615693</v>
       </c>
       <c r="H16">
-        <v>2.523373</v>
+        <v>7.847079000000001</v>
       </c>
       <c r="I16">
-        <v>0.05701799003039922</v>
+        <v>0.1581242736673807</v>
       </c>
       <c r="J16">
-        <v>0.05701799003039922</v>
+        <v>0.1581242736673807</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>17.41884833333333</v>
+        <v>13.04976133333333</v>
       </c>
       <c r="N16">
-        <v>52.256545</v>
+        <v>39.14928399999999</v>
       </c>
       <c r="O16">
-        <v>0.1797523871334833</v>
+        <v>0.1141726689026624</v>
       </c>
       <c r="P16">
-        <v>0.1797523871334834</v>
+        <v>0.1141726689026624</v>
       </c>
       <c r="Q16">
-        <v>14.65141719180944</v>
+        <v>34.13416937127067</v>
       </c>
       <c r="R16">
-        <v>131.862754726285</v>
+        <v>307.207524341436</v>
       </c>
       <c r="S16">
-        <v>0.01024911981751742</v>
+        <v>0.01805347034289983</v>
       </c>
       <c r="T16">
-        <v>0.01024911981751742</v>
+        <v>0.01805347034289983</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.030228666666667</v>
+        <v>4.248598333333334</v>
       </c>
       <c r="H17">
-        <v>15.090686</v>
+        <v>12.745795</v>
       </c>
       <c r="I17">
-        <v>0.340988266062879</v>
+        <v>0.2568369168563656</v>
       </c>
       <c r="J17">
-        <v>0.340988266062879</v>
+        <v>0.2568369168563656</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>37.78741566666667</v>
+        <v>34.293805</v>
       </c>
       <c r="N17">
-        <v>113.362247</v>
+        <v>102.881415</v>
       </c>
       <c r="O17">
-        <v>0.3899441593213934</v>
+        <v>0.3000373067112135</v>
       </c>
       <c r="P17">
-        <v>0.3899441593213934</v>
+        <v>0.3000373067112135</v>
       </c>
       <c r="Q17">
-        <v>190.0793415257158</v>
+        <v>145.7006027666583</v>
       </c>
       <c r="R17">
-        <v>1710.714073731442</v>
+        <v>1311.305424899925</v>
       </c>
       <c r="S17">
-        <v>0.132966382748349</v>
+        <v>0.07706065679759579</v>
       </c>
       <c r="T17">
-        <v>0.132966382748349</v>
+        <v>0.07706065679759579</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>5.030228666666667</v>
+        <v>4.248598333333334</v>
       </c>
       <c r="H18">
-        <v>15.090686</v>
+        <v>12.745795</v>
       </c>
       <c r="I18">
-        <v>0.340988266062879</v>
+        <v>0.2568369168563656</v>
       </c>
       <c r="J18">
-        <v>0.340988266062879</v>
+        <v>0.2568369168563656</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>82.867604</v>
       </c>
       <c r="O18">
-        <v>0.2850484974663402</v>
+        <v>0.2416702056223797</v>
       </c>
       <c r="P18">
-        <v>0.2850484974663403</v>
+        <v>0.2416702056223798</v>
       </c>
       <c r="Q18">
-        <v>138.9476657262605</v>
+        <v>117.3570547472422</v>
       </c>
       <c r="R18">
-        <v>1250.528991536344</v>
+        <v>1056.21349272518</v>
       </c>
       <c r="S18">
-        <v>0.09719819289487631</v>
+        <v>0.06206983050809591</v>
       </c>
       <c r="T18">
-        <v>0.09719819289487633</v>
+        <v>0.06206983050809592</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>5.030228666666667</v>
+        <v>4.248598333333334</v>
       </c>
       <c r="H19">
-        <v>15.090686</v>
+        <v>12.745795</v>
       </c>
       <c r="I19">
-        <v>0.340988266062879</v>
+        <v>0.2568369168563656</v>
       </c>
       <c r="J19">
-        <v>0.340988266062879</v>
+        <v>0.2568369168563656</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>9.205342333333334</v>
+        <v>32.81168366666667</v>
       </c>
       <c r="N19">
-        <v>27.616027</v>
+        <v>98.435051</v>
       </c>
       <c r="O19">
-        <v>0.09499378071000923</v>
+        <v>0.2870701922987834</v>
       </c>
       <c r="P19">
-        <v>0.09499378071000925</v>
+        <v>0.2870701922987835</v>
       </c>
       <c r="Q19">
-        <v>46.30497689161356</v>
+        <v>139.4036645400606</v>
       </c>
       <c r="R19">
-        <v>416.744792024522</v>
+        <v>1254.632980860545</v>
       </c>
       <c r="S19">
-        <v>0.03239176457106342</v>
+        <v>0.07373022311138351</v>
       </c>
       <c r="T19">
-        <v>0.03239176457106342</v>
+        <v>0.07373022311138352</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.030228666666667</v>
+        <v>4.248598333333334</v>
       </c>
       <c r="H20">
-        <v>15.090686</v>
+        <v>12.745795</v>
       </c>
       <c r="I20">
-        <v>0.340988266062879</v>
+        <v>0.2568369168563656</v>
       </c>
       <c r="J20">
-        <v>0.340988266062879</v>
+        <v>0.2568369168563656</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.870543333333333</v>
+        <v>6.520685</v>
       </c>
       <c r="N20">
-        <v>14.61163</v>
+        <v>19.562055</v>
       </c>
       <c r="O20">
-        <v>0.05026117536877379</v>
+        <v>0.05704962646496092</v>
       </c>
       <c r="P20">
-        <v>0.0502611753687738</v>
+        <v>0.05704962646496093</v>
       </c>
       <c r="Q20">
-        <v>24.49994669757556</v>
+        <v>27.70377142319167</v>
       </c>
       <c r="R20">
-        <v>220.49952027818</v>
+        <v>249.333942808725</v>
       </c>
       <c r="S20">
-        <v>0.01713847103928046</v>
+        <v>0.01465245016906788</v>
       </c>
       <c r="T20">
-        <v>0.01713847103928046</v>
+        <v>0.01465245016906788</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.030228666666667</v>
+        <v>4.248598333333334</v>
       </c>
       <c r="H21">
-        <v>15.090686</v>
+        <v>12.745795</v>
       </c>
       <c r="I21">
-        <v>0.340988266062879</v>
+        <v>0.2568369168563656</v>
       </c>
       <c r="J21">
-        <v>0.340988266062879</v>
+        <v>0.2568369168563656</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>17.41884833333333</v>
+        <v>13.04976133333333</v>
       </c>
       <c r="N21">
-        <v>52.256545</v>
+        <v>39.14928399999999</v>
       </c>
       <c r="O21">
-        <v>0.1797523871334833</v>
+        <v>0.1141726689026624</v>
       </c>
       <c r="P21">
-        <v>0.1797523871334834</v>
+        <v>0.1141726689026624</v>
       </c>
       <c r="Q21">
-        <v>87.62079022665222</v>
+        <v>55.44319425119777</v>
       </c>
       <c r="R21">
-        <v>788.58711203987</v>
+        <v>498.98874826078</v>
       </c>
       <c r="S21">
-        <v>0.06129345480930985</v>
+        <v>0.02932375627022244</v>
       </c>
       <c r="T21">
-        <v>0.06129345480930986</v>
+        <v>0.02932375627022245</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.745373333333333</v>
+        <v>0.9821143333333332</v>
       </c>
       <c r="H22">
-        <v>5.23612</v>
+        <v>2.946343</v>
       </c>
       <c r="I22">
-        <v>0.1183150639869627</v>
+        <v>0.0593709260286498</v>
       </c>
       <c r="J22">
-        <v>0.1183150639869627</v>
+        <v>0.0593709260286498</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>37.78741566666667</v>
+        <v>34.293805</v>
       </c>
       <c r="N22">
-        <v>113.362247</v>
+        <v>102.881415</v>
       </c>
       <c r="O22">
-        <v>0.3899441593213934</v>
+        <v>0.3000373067112135</v>
       </c>
       <c r="P22">
-        <v>0.3899441593213934</v>
+        <v>0.3000373067112135</v>
       </c>
       <c r="Q22">
-        <v>65.95314764018222</v>
+        <v>33.68043743503833</v>
       </c>
       <c r="R22">
-        <v>593.57832876164</v>
+        <v>303.1239369153449</v>
       </c>
       <c r="S22">
-        <v>0.04613626816145303</v>
+        <v>0.01781349274258677</v>
       </c>
       <c r="T22">
-        <v>0.04613626816145304</v>
+        <v>0.01781349274258677</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.745373333333333</v>
+        <v>0.9821143333333332</v>
       </c>
       <c r="H23">
-        <v>5.23612</v>
+        <v>2.946343</v>
       </c>
       <c r="I23">
-        <v>0.1183150639869627</v>
+        <v>0.0593709260286498</v>
       </c>
       <c r="J23">
-        <v>0.1183150639869627</v>
+        <v>0.0593709260286498</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>82.867604</v>
       </c>
       <c r="O23">
-        <v>0.2850484974663402</v>
+        <v>0.2416702056223797</v>
       </c>
       <c r="P23">
-        <v>0.2850484974663403</v>
+        <v>0.2416702056223798</v>
       </c>
       <c r="Q23">
-        <v>48.21163540627555</v>
+        <v>27.12848721913022</v>
       </c>
       <c r="R23">
-        <v>433.90471865648</v>
+        <v>244.156384972172</v>
       </c>
       <c r="S23">
-        <v>0.03372553121711761</v>
+        <v>0.01434818390133489</v>
       </c>
       <c r="T23">
-        <v>0.03372553121711762</v>
+        <v>0.0143481839013349</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.745373333333333</v>
+        <v>0.9821143333333332</v>
       </c>
       <c r="H24">
-        <v>5.23612</v>
+        <v>2.946343</v>
       </c>
       <c r="I24">
-        <v>0.1183150639869627</v>
+        <v>0.0593709260286498</v>
       </c>
       <c r="J24">
-        <v>0.1183150639869627</v>
+        <v>0.0593709260286498</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>9.205342333333334</v>
+        <v>32.81168366666667</v>
       </c>
       <c r="N24">
-        <v>27.616027</v>
+        <v>98.435051</v>
       </c>
       <c r="O24">
-        <v>0.09499378071000923</v>
+        <v>0.2870701922987834</v>
       </c>
       <c r="P24">
-        <v>0.09499378071000925</v>
+        <v>0.2870701922987835</v>
       </c>
       <c r="Q24">
-        <v>16.06675903280444</v>
+        <v>32.22482482983255</v>
       </c>
       <c r="R24">
-        <v>144.60083129524</v>
+        <v>290.023423468493</v>
       </c>
       <c r="S24">
-        <v>0.01123919524306824</v>
+        <v>0.01704362315200135</v>
       </c>
       <c r="T24">
-        <v>0.01123919524306825</v>
+        <v>0.01704362315200135</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.745373333333333</v>
+        <v>0.9821143333333332</v>
       </c>
       <c r="H25">
-        <v>5.23612</v>
+        <v>2.946343</v>
       </c>
       <c r="I25">
-        <v>0.1183150639869627</v>
+        <v>0.0593709260286498</v>
       </c>
       <c r="J25">
-        <v>0.1183150639869627</v>
+        <v>0.0593709260286498</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>4.870543333333333</v>
+        <v>6.520685</v>
       </c>
       <c r="N25">
-        <v>14.61163</v>
+        <v>19.562055</v>
       </c>
       <c r="O25">
-        <v>0.05026117536877379</v>
+        <v>0.05704962646496092</v>
       </c>
       <c r="P25">
-        <v>0.0502611753687738</v>
+        <v>0.05704962646496093</v>
       </c>
       <c r="Q25">
-        <v>8.500916452844443</v>
+        <v>6.404058201651666</v>
       </c>
       <c r="R25">
-        <v>76.50824807559999</v>
+        <v>57.63652381486499</v>
       </c>
       <c r="S25">
-        <v>0.005946654179816425</v>
+        <v>0.003387089152813297</v>
       </c>
       <c r="T25">
-        <v>0.005946654179816426</v>
+        <v>0.003387089152813297</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.745373333333333</v>
+        <v>0.9821143333333332</v>
       </c>
       <c r="H26">
-        <v>5.23612</v>
+        <v>2.946343</v>
       </c>
       <c r="I26">
-        <v>0.1183150639869627</v>
+        <v>0.0593709260286498</v>
       </c>
       <c r="J26">
-        <v>0.1183150639869627</v>
+        <v>0.0593709260286498</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>17.41884833333333</v>
+        <v>13.04976133333333</v>
       </c>
       <c r="N26">
-        <v>52.256545</v>
+        <v>39.14928399999999</v>
       </c>
       <c r="O26">
-        <v>0.1797523871334833</v>
+        <v>0.1141726689026624</v>
       </c>
       <c r="P26">
-        <v>0.1797523871334834</v>
+        <v>0.1141726689026624</v>
       </c>
       <c r="Q26">
-        <v>30.40239337837777</v>
+        <v>12.81635765204577</v>
       </c>
       <c r="R26">
-        <v>273.6215404054</v>
+        <v>115.347218868412</v>
       </c>
       <c r="S26">
-        <v>0.02126741518550737</v>
+        <v>0.006778537079913492</v>
       </c>
       <c r="T26">
-        <v>0.02126741518550737</v>
+        <v>0.006778537079913494</v>
       </c>
     </row>
   </sheetData>
